--- a/Skyrim/Alchemy.xlsx
+++ b/Skyrim/Alchemy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredients List" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="277">
   <si>
     <t xml:space="preserve">Paralysis Ingredients</t>
   </si>
@@ -518,6 +518,345 @@
   </si>
   <si>
     <t xml:space="preserve">Resist Frost, Resist Fire, Resist Shock, Restore Stamina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Mountain Flower · Wheat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Health, Fortify Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salt Pile · Garlic · Luna Moth Wing (or Namira's Rot or Juniper Berries)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regenerate Health, Regenerate Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Mountain Flower · Elves Ear · Tundra Cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Magicka, Fortify Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaly Pholiota · Bee · Purple Mountain Flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regenerate Stamina, Restore Stamina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vampire Dust · Garlic · Dwarven Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regenerate Health, Regenerate Magicka, Restore Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purple Mountain Flower · Large Antlers · Lavender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Stamina, Fortify Stamina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawk Feathers · Mudcrab Chitin · Charred Skeever Hide (or Vampire Dust)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vampire Dust · Hawk Feathers · Luna Moth Wing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cure Disease, Invisibility, Fortify Light Armor, Regen Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grass Pod · Spriggan Sap · Snowberries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alteration, Enchanting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tundra Cotton · Dragon's Tongue · Mora Tapinella (or Scaly Pholiota)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barter, Illusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block, Magic, Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant's Toe · Blue Mountain Flower · Scaly Pholiota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carry Weight, Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frost Salts · Blue Mountain Flower · Red Mountain Flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjuration, Restore Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ectoplasm · Briar Heart · Glowing Mushroom (or Glow Dust, Beehive Husk, Wisp Wrappings)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destruction, Restore Magicka, Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowberries · Spriggan Sap · Blisterwort (or Glowing Mushroom, Sabre Cat Tooth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchanting, Smithing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health, Restore Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slaughterfish Scales · Thistle Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Armor, Resist Frost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ragon's Tongue · Fly Amanita · Mora Tapinella (or Scaly Pholiota)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illusion, Resist Fire, Regen Stamina, Two-Handed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skeever Tail · Luna Moth Wing · Garlic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light Armor, Regen Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider Egg · Elves Ear · Falmer Ear (or Namira's Rot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lockpicking, Marksman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magicka, Restore Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elves Ear · Snowberries · Spider Egg (or Canis Root, Juniper Berries)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marksman, Resist Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanging Moss · Hawk Feathers · Glowing Mushroom (or Giant's Toe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-Handed, Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordic Barnacle · Garlic · Slaughterfish Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickpocket, Resist Poison, Stamina, Regen Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salt Pile · Garlic · Cyrodilic Spadetail (or Abecean Longfin, Yellow Mountain Flower)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restoration, Regen Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowberries · Spriggan Sap · Blisterwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smithing, Enchanting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frost Mirriam · Purple Mountain Flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sneak, Resist Frost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garlic · Torchbug Thorax · Charred Skeever Hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stamina, Restore Stamina, Resist Poison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon's Tongue · Scaly Pholiota · Fly Amanita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two-Handed, Restore Stamina, Resist Fire, Illusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invisibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vampire Dust · Luna Moth Wing · Red Mountain Flower (or Elves Ear, Pearl, Dwarven Oil, Grass Pod, Mora Tapinella, Giant Lichen, Creep Cluster, Taproot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invisibility, Regen Health, Restore Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invisibility, Cure Disease, Fortify Light Armor, Regen Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crafting &amp; Bartering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Butterfly Wing · Snowberries (or Ancestor Moth Wing, Spawn Ash, Spriggan Sap, Hagraven Claw, Chaurus Hunter Antennae)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortify Enchanting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blisterwort · Glowing Mushroom (or Sabre Cat Tooth, Spriggan Sap)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortify Smithing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon's Tongue · Mora Tapinella (or Scaly Pholiota, Taproot, Dwarven Oil)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortify Illusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon's Tongue · Tundra Cotton (or Butterfly Wing, Hagraven Claw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortify Barter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordic Barnacle · Blue Dartwing (or Orange Dartwing, Slaughterfish Egg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortify Pickpocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regen Health, Regen Magicka, Restore Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mora Tapinella · Scaly Pholiota · Creep Cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortify Illusion, Regen Stamina, Restore Magicka, Fortify Carry Weight, Weakness to magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bear Claws · Hanging Moss · Eye of Sabre Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortify Health, Damage, Magicka Regen, Fortify One-Handed, Restore Stamina, Damage Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glow Dust · Glowing Mushroom · Hanging Moss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist Shock, Fortify Destruction, Damage Magicka,Fortify Health, Damage Magicka Regen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silverside Perch · Daedra Heart · Eye of Sabre Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage Stamina Regen, Restore Stamina, Ravage Health, Damage Magicka, Restore Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frost Salts · Fire Salts · Snowberries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist Frost, Fire, Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Salts · Moon Sugar · Snowberries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist Frost, Fire, Restore Magicka, Regen Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Salts · Dragon's Tongue · Dwarven Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist Fire, Regen Magicka, Restore Magicka, Fortify Illusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Void Salts · Tundra Cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist Magic, Fortify Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weakness to Shock, Damage Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moon Sugar · Jazbay Grapes · Red Mountain Flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Magicka, Regen Magicka, Fortify Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist Fire, Frost, Restore Magicka, Regen Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moon Sugar · Garlic · Grass Pod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Magicka, Regen Magicka, Resist Poison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daedra Hearts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daedra Heart · Silverside Perch · Eye of Sabre Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daedra Heart · Skeever Tail · Jazbay Grapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage Stamina Regen, Weakness to Magic, Ravage Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Hearts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Heart · Hanging Moss · Falmer Ear (or Troll Fat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage Health, Frenzy, Damage Magicka, Damage Magicka Regen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Flesh · Briar Heart · Tundra Cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortify Block, Restore Magicka, Paralysis, Fortify Magicka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Flesh · Imp Stool · Slaughterfish Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paralysis, Damage Health, Lingering Damage Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nirnroot (or Crimson Nirnroot) · Chaurus Eggs · Lavender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invisibility, Resist Magic, Fortify Stamina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nirnroot (or Crimson Nirnroot) · Giant's Toe · Skeever Tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage Stamina, Damage Stamina Regen, Damage Health</t>
   </si>
 </sst>
 </file>
@@ -527,11 +866,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -552,15 +892,11 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <u val="single"/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -569,7 +905,7 @@
     <font>
       <b val="true"/>
       <u val="single"/>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -617,29 +953,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -651,15 +983,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -782,7 +1105,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.53"/>
@@ -1425,276 +1748,276 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="45.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="49.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1714,98 +2037,196 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="58.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="69.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="69.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1823,14 +2244,348 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="77.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.77"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1846,14 +2601,112 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.45"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1869,14 +2722,123 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1892,14 +2854,122 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.24"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
